--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>TID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>DefaultSkills</t>
+  </si>
+  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>默认技能组</t>
+  </si>
+  <si>
     <t>速度</t>
   </si>
   <si>
@@ -212,6 +221,9 @@
     <t>近战物理</t>
   </si>
   <si>
+    <t>[1001,1002,1003]</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
     <t>血低高魔伤</t>
   </si>
   <si>
+    <t>[2001,2002]</t>
+  </si>
+  <si>
     <t>Texture/RoleListItemBg/role1</t>
   </si>
   <si>
@@ -255,6 +270,18 @@
   </si>
   <si>
     <t>偷鸡摸狗</t>
+  </si>
+  <si>
+    <t>[3001]</t>
+  </si>
+  <si>
+    <t>骷髅小兵</t>
+  </si>
+  <si>
+    <t>Prefabs/Role/Tid-1002</t>
+  </si>
+  <si>
+    <t>低攻低防,不惧死亡</t>
   </si>
 </sst>
 </file>
@@ -1215,27 +1242,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="11.6333333333333" style="3" customWidth="1"/>
-    <col min="19" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="27.6833333333333" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="28.3583333333333" style="3" customWidth="1"/>
+    <col min="7" max="18" width="9" style="3"/>
+    <col min="19" max="19" width="11.6333333333333" style="3" customWidth="1"/>
+    <col min="20" max="27" width="9" style="3"/>
+    <col min="28" max="28" width="27.6833333333333" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,455 +1345,467 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:27">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" customHeight="1" spans="1:28">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="3">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3">
         <v>3000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>500</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>300</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
       <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
         <v>30</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>30</v>
-      </c>
-      <c r="M4" s="3">
-        <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>10</v>
       </c>
       <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3">
         <v>150</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>100</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>5</v>
       </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
       <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>20</v>
-      </c>
-      <c r="U4" s="3">
-        <v>10</v>
       </c>
       <c r="V4" s="3">
         <v>10</v>
       </c>
       <c r="W4" s="3">
+        <v>10</v>
+      </c>
+      <c r="X4" s="3">
         <v>2</v>
       </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
       <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
         <v>0.6</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AA4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:28">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="3">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3">
         <v>3000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>300</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>500</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
       <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>30</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>30</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>50</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>150</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>100</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>5</v>
       </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
       <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>10</v>
-      </c>
-      <c r="U5" s="3">
-        <v>20</v>
       </c>
       <c r="V5" s="3">
         <v>20</v>
       </c>
       <c r="W5" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
         <v>2</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <v>0.6</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AA5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:27">
+    <row r="6" customHeight="1" spans="1:28">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="3">
+        <v>73</v>
+      </c>
+      <c r="G6" s="3">
         <v>3000</v>
-      </c>
-      <c r="G6" s="3">
-        <v>400</v>
       </c>
       <c r="H6" s="3">
         <v>400</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>30</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
       </c>
       <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
         <v>10</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>150</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>100</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>5</v>
       </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
       <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>10</v>
-      </c>
-      <c r="U6" s="3">
-        <v>20</v>
       </c>
       <c r="V6" s="3">
         <v>20</v>
       </c>
       <c r="W6" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
         <v>2</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>0.6</v>
       </c>
-      <c r="Z6" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AA6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:27">
+    <row r="7" customHeight="1" spans="1:28">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="3">
+        <v>76</v>
+      </c>
+      <c r="G7" s="3">
         <v>3000</v>
-      </c>
-      <c r="G7" s="3">
-        <v>400</v>
       </c>
       <c r="H7" s="3">
         <v>400</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <v>30</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1774,109 +1814,112 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
         <v>10</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>150</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>100</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>5</v>
       </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
       <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>20</v>
-      </c>
-      <c r="U7" s="3">
-        <v>10</v>
       </c>
       <c r="V7" s="3">
         <v>10</v>
       </c>
       <c r="W7" s="3">
+        <v>10</v>
+      </c>
+      <c r="X7" s="3">
         <v>2</v>
       </c>
-      <c r="X7" s="3">
-        <v>1</v>
-      </c>
       <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
         <v>0.6</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AA7" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:26">
+    <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="3">
         <v>1001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="3">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
       <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
         <v>30</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>30</v>
       </c>
       <c r="M8" s="3">
         <v>30</v>
       </c>
       <c r="N8" s="3">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3">
         <v>10</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>150</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5</v>
       </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
       <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
-        <v>1</v>
-      </c>
       <c r="U8" s="3">
         <v>1</v>
       </c>
@@ -1892,8 +1935,94 @@
       <c r="Y8" s="3">
         <v>1</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>74</v>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:27">
+      <c r="A9" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>30</v>
+      </c>
+      <c r="N9" s="3">
+        <v>30</v>
+      </c>
+      <c r="O9" s="3">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>TID</t>
   </si>
@@ -113,6 +113,12 @@
     <t>BgResource</t>
   </si>
   <si>
+    <t>ExpReward</t>
+  </si>
+  <si>
+    <t>GoldReward</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>类型编号</t>
   </si>
   <si>
@@ -209,6 +218,12 @@
     <t>图片资源</t>
   </si>
   <si>
+    <t>经验奖励</t>
+  </si>
+  <si>
+    <t>金币奖励</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
@@ -269,10 +284,10 @@
     <t>Monster</t>
   </si>
   <si>
-    <t>偷鸡摸狗</t>
-  </si>
-  <si>
-    <t>[3001]</t>
+    <t>偷鸡摸狗,背刺爆发</t>
+  </si>
+  <si>
+    <t>[10001]</t>
   </si>
   <si>
     <t>骷髅小兵</t>
@@ -282,6 +297,18 @@
   </si>
   <si>
     <t>低攻低防,不惧死亡</t>
+  </si>
+  <si>
+    <t>牛头战士</t>
+  </si>
+  <si>
+    <t>Prefabs/Role/Tid-1003</t>
+  </si>
+  <si>
+    <t>高攻高防御,横冲直撞</t>
+  </si>
+  <si>
+    <t>[30001,30002,30003]</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1260,10 +1287,12 @@
     <col min="19" max="19" width="11.6333333333333" style="3" customWidth="1"/>
     <col min="20" max="27" width="9" style="3"/>
     <col min="28" max="28" width="27.6833333333333" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="3"/>
+    <col min="29" max="29" width="15.3833333333333" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.0166666666667" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,177 +1377,195 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>29</v>
+      <c r="AC2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:28">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:28">
@@ -1526,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G4" s="3">
         <v>3000</v>
@@ -1565,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3">
         <v>150</v>
@@ -1601,10 +1648,10 @@
         <v>0.6</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:28">
@@ -1612,19 +1659,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G5" s="3">
         <v>3000</v>
@@ -1651,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="O5" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3">
         <v>150</v>
@@ -1687,10 +1734,10 @@
         <v>0.6</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:28">
@@ -1698,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3">
         <v>3000</v>
@@ -1734,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3">
         <v>150</v>
@@ -1770,10 +1817,10 @@
         <v>0.6</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:28">
@@ -1781,16 +1828,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" s="3">
         <v>3000</v>
@@ -1817,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3">
         <v>150</v>
@@ -1853,30 +1900,30 @@
         <v>0.6</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:27">
+    <row r="8" customHeight="1" spans="1:30">
       <c r="A8" s="3">
         <v>1001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G8" s="3">
         <v>3000</v>
@@ -1903,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P8" s="3">
         <v>150</v>
@@ -1939,27 +1986,33 @@
         <v>1</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:27">
+    <row r="9" customHeight="1" spans="1:30">
       <c r="A9" s="3">
         <v>1002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G9" s="3">
         <v>3000</v>
@@ -1986,7 +2039,7 @@
         <v>30</v>
       </c>
       <c r="O9" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P9" s="3">
         <v>150</v>
@@ -2022,7 +2075,102 @@
         <v>1</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:30">
+      <c r="A10" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>180</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>10</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1929,10 +1929,10 @@
         <v>3000</v>
       </c>
       <c r="H8" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N8" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O8" s="3">
         <v>5</v>
@@ -2128,7 +2128,7 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P10" s="3">
         <v>150</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>TID</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>Texture/RoleListItemBg/role3</t>
+  </si>
+  <si>
+    <t>俏皮女枪</t>
+  </si>
+  <si>
+    <t>Prefabs/Role/Tid-4</t>
+  </si>
+  <si>
+    <t>[4001,4002,4003]</t>
+  </si>
+  <si>
+    <t>Texture/RoleListItemBg/role4</t>
   </si>
   <si>
     <t>山贼</t>
@@ -1269,7 +1281,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -1594,22 +1606,22 @@
         <v>500</v>
       </c>
       <c r="I4" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N4" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
@@ -1680,7 +1692,7 @@
         <v>300</v>
       </c>
       <c r="I5" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
@@ -1689,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M5" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N5" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O5" s="3">
         <v>1</v>
@@ -1772,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -1852,16 +1864,16 @@
         <v>1</v>
       </c>
       <c r="K7" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
@@ -1906,51 +1918,51 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:30">
+    <row r="8" customHeight="1" spans="1:28">
       <c r="A8" s="3">
-        <v>1001</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G8" s="3">
         <v>3000</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>50</v>
       </c>
       <c r="O8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3">
         <v>150</v>
@@ -1968,57 +1980,54 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W8" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="3">
         <v>1</v>
       </c>
       <c r="Z8" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:30">
       <c r="A9" s="3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G9" s="3">
         <v>3000</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -2033,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N9" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3">
         <v>150</v>
@@ -2075,60 +2084,60 @@
         <v>1</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC9" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:30">
       <c r="A10" s="3">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="G10" s="3">
         <v>3000</v>
       </c>
       <c r="H10" s="3">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O10" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3">
         <v>150</v>
@@ -2137,7 +2146,7 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
@@ -2164,12 +2173,101 @@
         <v>1</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC10" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:30">
+      <c r="A11" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="3">
         <v>2000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="I11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>200</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>180</v>
+      </c>
+      <c r="N11" s="3">
+        <v>100</v>
+      </c>
+      <c r="O11" s="3">
+        <v>10</v>
+      </c>
+      <c r="P11" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>100</v>
+      </c>
+      <c r="R11" s="3">
+        <v>10</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD11" s="3">
         <v>100</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <t>Prefabs/Role/Tid-4</t>
   </si>
   <si>
-    <t>[4001,4002,4003]</t>
+    <t>[]</t>
   </si>
   <si>
     <t>Texture/RoleListItemBg/role4</t>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>血低高魔伤</t>
   </si>
   <si>
-    <t>[2001,2002]</t>
+    <t>[2001,2002,2003,2004]</t>
   </si>
   <si>
     <t>Texture/RoleListItemBg/role1</t>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -149,7 +149,7 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>默认技能组</t>
+    <t>默认技能组,这里其实就是普通攻击</t>
   </si>
   <si>
     <t>速度</t>
@@ -284,7 +284,7 @@
     <t>Prefabs/Role/Tid-4</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>[4001,4002,4003]</t>
   </si>
   <si>
     <t>Texture/RoleListItemBg/role4</t>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1294,7 +1294,7 @@
     <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.3583333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.5916666666667" style="3" customWidth="1"/>
     <col min="7" max="18" width="9" style="3"/>
     <col min="19" max="19" width="11.6333333333333" style="3" customWidth="1"/>
     <col min="20" max="27" width="9" style="3"/>
@@ -2027,7 +2027,7 @@
         <v>3000</v>
       </c>
       <c r="H9" s="3">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1941,7 +1941,7 @@
         <v>3000</v>
       </c>
       <c r="H8" s="3">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -284,7 +284,7 @@
     <t>Prefabs/Role/Tid-4</t>
   </si>
   <si>
-    <t>[4001,4002,4003]</t>
+    <t>[4001,4002,4003,4004]</t>
   </si>
   <si>
     <t>Texture/RoleListItemBg/role4</t>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>偷鸡摸狗,背刺爆发</t>
   </si>
   <si>
-    <t>[10001]</t>
+    <t>[10001,10002]</t>
   </si>
   <si>
     <t>骷髅小兵</t>
@@ -1283,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2027,7 +2027,7 @@
         <v>3000</v>
       </c>
       <c r="H9" s="3">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>3000</v>
       </c>
       <c r="H10" s="3">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>TID</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Resource</t>
   </si>
   <si>
+    <t>BgResource</t>
+  </si>
+  <si>
     <t>Kind</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
     <t>AI</t>
   </si>
   <si>
-    <t>BgResource</t>
-  </si>
-  <si>
     <t>ExpReward</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
     <t>资源</t>
   </si>
   <si>
+    <t>图片资源</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
     <t>AI名称</t>
   </si>
   <si>
-    <t>图片资源</t>
-  </si>
-  <si>
     <t>经验奖励</t>
   </si>
   <si>
@@ -227,7 +227,10 @@
     <t>战士</t>
   </si>
   <si>
-    <t>Prefabs/Role/Tid-0</t>
+    <t>Combat/Prefabs/Unit/Tid-0</t>
+  </si>
+  <si>
+    <t>UI/Texture/RoleListItemBg/role0</t>
   </si>
   <si>
     <t>Character</t>
@@ -242,13 +245,13 @@
     <t>no</t>
   </si>
   <si>
-    <t>Texture/RoleListItemBg/role0</t>
-  </si>
-  <si>
     <t>法师</t>
   </si>
   <si>
-    <t>Prefabs/Role/Tid-1</t>
+    <t>Combat/Prefabs/Unit/Tid-1</t>
+  </si>
+  <si>
+    <t>UI/Texture/RoleListItemBg/role1</t>
   </si>
   <si>
     <t>血低高魔伤</t>
@@ -257,39 +260,39 @@
     <t>[2001,2002,2003,2004]</t>
   </si>
   <si>
-    <t>Texture/RoleListItemBg/role1</t>
-  </si>
-  <si>
     <t>仙术</t>
   </si>
   <si>
+    <t>UI/Texture/RoleListItemBg/role2</t>
+  </si>
+  <si>
     <t>法系辅助</t>
   </si>
   <si>
-    <t>Texture/RoleListItemBg/role2</t>
+    <t>[0]</t>
   </si>
   <si>
     <t>游侠</t>
   </si>
   <si>
+    <t>UI/Texture/RoleListItemBg/role3</t>
+  </si>
+  <si>
     <t>远程高爆发</t>
   </si>
   <si>
-    <t>Texture/RoleListItemBg/role3</t>
-  </si>
-  <si>
     <t>俏皮女枪</t>
   </si>
   <si>
-    <t>Prefabs/Role/Tid-4</t>
+    <t>Combat/Prefabs/Unit/Tid-4</t>
+  </si>
+  <si>
+    <t>UI/Texture/RoleListItemBg/role4</t>
   </si>
   <si>
     <t>[4001,4002,4003,4004]</t>
   </si>
   <si>
-    <t>Texture/RoleListItemBg/role4</t>
-  </si>
-  <si>
     <t>山贼</t>
   </si>
   <si>
@@ -305,7 +308,7 @@
     <t>骷髅小兵</t>
   </si>
   <si>
-    <t>Prefabs/Role/Tid-1002</t>
+    <t>Combat/Prefabs/Unit/Tid-1002</t>
   </si>
   <si>
     <t>低攻低防,不惧死亡</t>
@@ -314,7 +317,7 @@
     <t>牛头战士</t>
   </si>
   <si>
-    <t>Prefabs/Role/Tid-1003</t>
+    <t>Combat/Prefabs/Unit/Tid-1003</t>
   </si>
   <si>
     <t>高攻高防御,横冲直撞</t>
@@ -1283,22 +1286,22 @@
   <sheetPr/>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.5916666666667" style="3" customWidth="1"/>
-    <col min="7" max="18" width="9" style="3"/>
-    <col min="19" max="19" width="11.6333333333333" style="3" customWidth="1"/>
-    <col min="20" max="27" width="9" style="3"/>
-    <col min="28" max="28" width="27.6833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.9166666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.6833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.5916666666667" style="3" customWidth="1"/>
+    <col min="8" max="19" width="9" style="3"/>
+    <col min="20" max="20" width="11.6333333333333" style="3" customWidth="1"/>
+    <col min="21" max="28" width="9" style="3"/>
     <col min="29" max="29" width="15.3833333333333" style="3" customWidth="1"/>
     <col min="30" max="30" width="12.0166666666667" style="3" customWidth="1"/>
     <col min="31" max="16384" width="9" style="3"/>
@@ -1413,22 +1416,22 @@
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>33</v>
@@ -1476,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>31</v>
@@ -1580,7 +1583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:28">
+    <row r="4" customHeight="1" spans="1:30">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1599,74 +1602,80 @@
       <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3">
         <v>3000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>500</v>
       </c>
       <c r="I4" s="3">
         <v>500</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
         <v>100</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
       <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>100</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>50</v>
       </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
       <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
         <v>150</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>100</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>5</v>
       </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
       <c r="T4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
         <v>20</v>
-      </c>
-      <c r="V4" s="3">
-        <v>10</v>
       </c>
       <c r="W4" s="3">
         <v>10</v>
       </c>
       <c r="X4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="3">
         <v>2</v>
       </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
       <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
         <v>0.6</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:28">
+    <row r="5" customHeight="1" spans="1:30">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1677,82 +1686,88 @@
         <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="3">
         <v>3000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>300</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>600</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
         <v>100</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>50</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>100</v>
       </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
       <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
         <v>150</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>100</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>5</v>
       </c>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
         <v>10</v>
-      </c>
-      <c r="V5" s="3">
-        <v>20</v>
       </c>
       <c r="W5" s="3">
         <v>20</v>
       </c>
       <c r="X5" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
         <v>2</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <v>0.6</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="AB5" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:28">
+    <row r="6" customHeight="1" spans="1:30">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1763,245 +1778,269 @@
         <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="3">
+        <v>68</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3">
         <v>3000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>400</v>
       </c>
       <c r="I6" s="3">
         <v>400</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>100</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
       <c r="N6" s="3">
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
         <v>150</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>100</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>5</v>
       </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
         <v>10</v>
-      </c>
-      <c r="V6" s="3">
-        <v>20</v>
       </c>
       <c r="W6" s="3">
         <v>20</v>
       </c>
       <c r="X6" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
         <v>2</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AA6" s="3">
         <v>0.6</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="AB6" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:28">
+    <row r="7" customHeight="1" spans="1:30">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="3">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3">
         <v>3000</v>
-      </c>
-      <c r="H7" s="3">
-        <v>400</v>
       </c>
       <c r="I7" s="3">
         <v>400</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>100</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
       <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>50</v>
       </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
       <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
         <v>150</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>100</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>5</v>
       </c>
-      <c r="S7" s="3">
-        <v>1</v>
-      </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
         <v>20</v>
-      </c>
-      <c r="V7" s="3">
-        <v>10</v>
       </c>
       <c r="W7" s="3">
         <v>10</v>
       </c>
       <c r="X7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="3">
         <v>2</v>
       </c>
-      <c r="Y7" s="3">
-        <v>1</v>
-      </c>
       <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
         <v>0.6</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="AB7" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:28">
+    <row r="8" customHeight="1" spans="1:30">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="3">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
       <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
       <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
         <v>150</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5</v>
       </c>
-      <c r="S8" s="3">
-        <v>1</v>
-      </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>20</v>
-      </c>
-      <c r="V8" s="3">
-        <v>10</v>
       </c>
       <c r="W8" s="3">
         <v>10</v>
       </c>
       <c r="X8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="3">
         <v>2</v>
       </c>
-      <c r="Y8" s="3">
-        <v>1</v>
-      </c>
       <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
         <v>0.6</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="AB8" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:30">
@@ -2009,64 +2048,61 @@
         <v>1001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
       <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>50</v>
       </c>
       <c r="O9" s="3">
+        <v>50</v>
+      </c>
+      <c r="P9" s="3">
         <v>5</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>150</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5</v>
       </c>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>1</v>
@@ -2083,8 +2119,11 @@
       <c r="Z9" s="3">
         <v>1</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>88</v>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="AC9" s="3">
         <v>10</v>
@@ -2098,64 +2137,61 @@
         <v>1002</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
       <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>30</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>30</v>
       </c>
       <c r="O10" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
         <v>150</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5</v>
       </c>
-      <c r="S10" s="3">
-        <v>1</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>1</v>
@@ -2172,8 +2208,11 @@
       <c r="Z10" s="3">
         <v>1</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>88</v>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="AC10" s="3">
         <v>20</v>
@@ -2187,64 +2226,61 @@
         <v>1003</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="3">
         <v>3000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2000</v>
       </c>
       <c r="I11" s="3">
         <v>2000</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
         <v>200</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
       <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
         <v>180</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>100</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>10</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>150</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>100</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>10</v>
       </c>
-      <c r="S11" s="3">
-        <v>1</v>
-      </c>
       <c r="T11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="3">
         <v>1</v>
@@ -2261,8 +2297,11 @@
       <c r="Z11" s="3">
         <v>1</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>88</v>
+      <c r="AA11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="AC11" s="3">
         <v>2000</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <t>俏皮女枪</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Unit/Tid-4</t>
+    <t>Assets/AssetPackage/Combat/Prefabs/Unit/Tid-4</t>
   </si>
   <si>
     <t>UI/Texture/RoleListItemBg/role4</t>
@@ -308,7 +308,7 @@
     <t>骷髅小兵</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Unit/Tid-1002</t>
+    <t>Assets/AssetPackage/Combat/Prefabs/Unit/Tid-1002</t>
   </si>
   <si>
     <t>低攻低防,不惧死亡</t>
@@ -1287,14 +1287,14 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.9166666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="27.6833333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="27" style="3" customWidth="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -227,7 +227,7 @@
     <t>战士</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Unit/Tid-0</t>
+    <t>Unit_Tid-0</t>
   </si>
   <si>
     <t>UI/Texture/RoleListItemBg/role0</t>
@@ -248,7 +248,7 @@
     <t>法师</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Unit/Tid-1</t>
+    <t>Unit_Tid-1</t>
   </si>
   <si>
     <t>UI/Texture/RoleListItemBg/role1</t>
@@ -284,7 +284,7 @@
     <t>俏皮女枪</t>
   </si>
   <si>
-    <t>Assets/AssetPackage/Combat/Prefabs/Unit/Tid-4</t>
+    <t>Unit_Tid-4</t>
   </si>
   <si>
     <t>UI/Texture/RoleListItemBg/role4</t>
@@ -308,7 +308,7 @@
     <t>骷髅小兵</t>
   </si>
   <si>
-    <t>Assets/AssetPackage/Combat/Prefabs/Unit/Tid-1002</t>
+    <t>Unit_Tid-1002</t>
   </si>
   <si>
     <t>低攻低防,不惧死亡</t>
@@ -317,7 +317,7 @@
     <t>牛头战士</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Unit/Tid-1003</t>
+    <t>Unit_Tid-1003</t>
   </si>
   <si>
     <t>高攻高防御,横冲直撞</t>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -26,6 +26,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>大凉龙雀</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认前缀：Assets/Res/
+默认后缀：.prefab
+示例：Units/100
+代表:Assets/Res/Units/100.prefab</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
@@ -227,7 +262,7 @@
     <t>战士</t>
   </si>
   <si>
-    <t>Unit_Tid-0</t>
+    <t>Units/Tid-0</t>
   </si>
   <si>
     <t>UI/Texture/RoleListItemBg/role0</t>
@@ -248,7 +283,7 @@
     <t>法师</t>
   </si>
   <si>
-    <t>Unit_Tid-1</t>
+    <t>Units/Tid-1</t>
   </si>
   <si>
     <t>UI/Texture/RoleListItemBg/role1</t>
@@ -284,7 +319,7 @@
     <t>俏皮女枪</t>
   </si>
   <si>
-    <t>Unit_Tid-4</t>
+    <t>Units/Tid-4</t>
   </si>
   <si>
     <t>UI/Texture/RoleListItemBg/role4</t>
@@ -308,7 +343,7 @@
     <t>骷髅小兵</t>
   </si>
   <si>
-    <t>Unit_Tid-1002</t>
+    <t>Units/Tid-1002</t>
   </si>
   <si>
     <t>低攻低防,不惧死亡</t>
@@ -317,7 +352,7 @@
     <t>牛头战士</t>
   </si>
   <si>
-    <t>Unit_Tid-1003</t>
+    <t>Units/Tid-1003</t>
   </si>
   <si>
     <t>高攻高防御,横冲直撞</t>
@@ -336,7 +371,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +530,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1287,7 +1333,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2314,5 +2360,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
     <t>Units/Tid-0</t>
   </si>
   <si>
-    <t>UI/Texture/RoleListItemBg/role0</t>
+    <t>Texture/bg/RoleListItemBg/role0</t>
   </si>
   <si>
     <t>Character</t>
@@ -286,7 +286,7 @@
     <t>Units/Tid-1</t>
   </si>
   <si>
-    <t>UI/Texture/RoleListItemBg/role1</t>
+    <t>Texture/bg/RoleListItemBg/role1</t>
   </si>
   <si>
     <t>血低高魔伤</t>
@@ -298,7 +298,7 @@
     <t>仙术</t>
   </si>
   <si>
-    <t>UI/Texture/RoleListItemBg/role2</t>
+    <t>Texture/bg/RoleListItemBg/role2</t>
   </si>
   <si>
     <t>法系辅助</t>
@@ -310,7 +310,7 @@
     <t>游侠</t>
   </si>
   <si>
-    <t>UI/Texture/RoleListItemBg/role3</t>
+    <t>Texture/bg/RoleListItemBg/role3</t>
   </si>
   <si>
     <t>远程高爆发</t>
@@ -322,7 +322,7 @@
     <t>Units/Tid-4</t>
   </si>
   <si>
-    <t>UI/Texture/RoleListItemBg/role4</t>
+    <t>Texture/bg/RoleListItemBg/role4</t>
   </si>
   <si>
     <t>[4001,4002,4003,4004]</t>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -262,10 +262,10 @@
     <t>战士</t>
   </si>
   <si>
-    <t>Units/Tid-0</t>
-  </si>
-  <si>
-    <t>Texture/bg/RoleListItemBg/role0</t>
+    <t>Units/Tid-0.prefab</t>
+  </si>
+  <si>
+    <t>Texture/bg/RoleListItemBg/role0.png</t>
   </si>
   <si>
     <t>Character</t>
@@ -283,10 +283,10 @@
     <t>法师</t>
   </si>
   <si>
-    <t>Units/Tid-1</t>
-  </si>
-  <si>
-    <t>Texture/bg/RoleListItemBg/role1</t>
+    <t>Units/Tid-1.prefab</t>
+  </si>
+  <si>
+    <t>Texture/bg/RoleListItemBg/role1.png</t>
   </si>
   <si>
     <t>血低高魔伤</t>
@@ -298,7 +298,7 @@
     <t>仙术</t>
   </si>
   <si>
-    <t>Texture/bg/RoleListItemBg/role2</t>
+    <t>Texture/bg/RoleListItemBg/role2.png</t>
   </si>
   <si>
     <t>法系辅助</t>
@@ -310,7 +310,7 @@
     <t>游侠</t>
   </si>
   <si>
-    <t>Texture/bg/RoleListItemBg/role3</t>
+    <t>Texture/bg/RoleListItemBg/role3.png</t>
   </si>
   <si>
     <t>远程高爆发</t>
@@ -319,10 +319,10 @@
     <t>俏皮女枪</t>
   </si>
   <si>
-    <t>Units/Tid-4</t>
-  </si>
-  <si>
-    <t>Texture/bg/RoleListItemBg/role4</t>
+    <t>Units/Tid-4.prefab</t>
+  </si>
+  <si>
+    <t>Texture/bg/RoleListItemBg/role4.png</t>
   </si>
   <si>
     <t>[4001,4002,4003,4004]</t>
@@ -343,7 +343,7 @@
     <t>骷髅小兵</t>
   </si>
   <si>
-    <t>Units/Tid-1002</t>
+    <t>Units/Tid-1002.prefab</t>
   </si>
   <si>
     <t>低攻低防,不惧死亡</t>
@@ -352,7 +352,7 @@
     <t>牛头战士</t>
   </si>
   <si>
-    <t>Units/Tid-1003</t>
+    <t>Units/Tid-1003.prefab</t>
   </si>
   <si>
     <t>高攻高防御,横冲直撞</t>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -1332,8 +1332,8 @@
   <sheetPr/>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1471,10 +1471,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>30</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
   <si>
     <t>TID</t>
   </si>
@@ -298,6 +298,9 @@
     <t>仙术</t>
   </si>
   <si>
+    <t>Units/Tid-2.prefab</t>
+  </si>
+  <si>
     <t>Texture/bg/RoleListItemBg/role2.png</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
   </si>
   <si>
     <t>游侠</t>
+  </si>
+  <si>
+    <t>Units/Tid-3.prefab</t>
   </si>
   <si>
     <t>Texture/bg/RoleListItemBg/role3.png</t>
@@ -1332,8 +1338,10 @@
   <sheetPr/>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1821,19 +1829,19 @@
         <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3">
         <v>3000</v>
@@ -1910,22 +1918,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="3">
         <v>3000</v>
@@ -2002,13 +2010,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>68</v>
@@ -2017,7 +2025,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="3">
         <v>3000</v>
@@ -2094,19 +2102,19 @@
         <v>1001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H9" s="3">
         <v>3000</v>
@@ -2169,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC9" s="3">
         <v>10</v>
@@ -2183,19 +2191,19 @@
         <v>1002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H10" s="3">
         <v>3000</v>
@@ -2258,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="3">
         <v>20</v>
@@ -2272,19 +2280,19 @@
         <v>1003</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H11" s="3">
         <v>3000</v>
@@ -2347,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="3">
         <v>2000</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>TID</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>DefaultSkills</t>
+    <t>weaponSkillArsenalId</t>
   </si>
   <si>
     <t>Speed</t>
@@ -160,9 +160,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -187,7 +184,7 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>默认技能组,这里其实就是普通攻击</t>
+    <t>默认技能组</t>
   </si>
   <si>
     <t>速度</t>
@@ -274,9 +271,6 @@
     <t>近战物理</t>
   </si>
   <si>
-    <t>[1001,1002,1003]</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t>血低高魔伤</t>
   </si>
   <si>
-    <t>[2001,2002,2003,2004]</t>
-  </si>
-  <si>
     <t>仙术</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
     <t>法系辅助</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
     <t>游侠</t>
   </si>
   <si>
@@ -331,9 +319,6 @@
     <t>Texture/bg/RoleListItemBg/role4.png</t>
   </si>
   <si>
-    <t>[4001,4002,4003,4004]</t>
-  </si>
-  <si>
     <t>山贼</t>
   </si>
   <si>
@@ -343,9 +328,6 @@
     <t>偷鸡摸狗,背刺爆发</t>
   </si>
   <si>
-    <t>[10001,10002]</t>
-  </si>
-  <si>
     <t>骷髅小兵</t>
   </si>
   <si>
@@ -362,9 +344,6 @@
   </si>
   <si>
     <t>高攻高防御,横冲直撞</t>
-  </si>
-  <si>
-    <t>[30001,30002,30003]</t>
   </si>
 </sst>
 </file>
@@ -1339,9 +1318,9 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1473,7 +1452,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
@@ -1488,153 +1467,153 @@
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:30">
@@ -1642,22 +1621,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
+      <c r="G4" s="3">
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>3000</v>
@@ -1720,7 +1699,7 @@
         <v>0.6</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="3">
         <v>0</v>
@@ -1734,22 +1713,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>76</v>
+      <c r="G5" s="3">
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>3000</v>
@@ -1812,7 +1791,7 @@
         <v>0.6</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="3">
         <v>0</v>
@@ -1826,22 +1805,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>81</v>
+      <c r="G6" s="3">
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>3000</v>
@@ -1904,7 +1883,7 @@
         <v>0.6</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="3">
         <v>0</v>
@@ -1918,22 +1897,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>3000</v>
@@ -1996,7 +1975,7 @@
         <v>0.6</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC7" s="3">
         <v>0</v>
@@ -2010,22 +1989,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>89</v>
+      <c r="G8" s="3">
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>3000</v>
@@ -2088,7 +2067,7 @@
         <v>0.6</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -2102,19 +2081,19 @@
         <v>1001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>3000</v>
@@ -2177,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AC9" s="3">
         <v>10</v>
@@ -2191,19 +2170,19 @@
         <v>1002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>3000</v>
@@ -2266,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AC10" s="3">
         <v>20</v>
@@ -2280,19 +2259,19 @@
         <v>1003</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>3000</v>
@@ -2355,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AC11" s="3">
         <v>2000</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -1320,7 +1320,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G17" sqref="G17"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1636,7 +1636,7 @@
         <v>68</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>3000</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDefine" sheetId="1" r:id="rId1"/>
@@ -1318,9 +1318,9 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -1320,7 +1320,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2271,7 +2271,7 @@
         <v>93</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="3">
         <v>3000</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -1320,7 +1320,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1642,10 +1642,10 @@
         <v>3000</v>
       </c>
       <c r="I4" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J4" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>

--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>TID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>GAGI</t>
   </si>
   <si>
-    <t>AI</t>
-  </si>
-  <si>
     <t>ExpReward</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>敏捷成长</t>
   </si>
   <si>
-    <t>AI名称</t>
-  </si>
-  <si>
     <t>经验奖励</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
   </si>
   <si>
     <t>近战物理</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>法师</t>
@@ -1315,12 +1306,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1334,13 +1325,13 @@
     <col min="7" max="7" width="32.5916666666667" style="3" customWidth="1"/>
     <col min="8" max="19" width="9" style="3"/>
     <col min="20" max="20" width="11.6333333333333" style="3" customWidth="1"/>
-    <col min="21" max="28" width="9" style="3"/>
-    <col min="29" max="29" width="15.3833333333333" style="3" customWidth="1"/>
-    <col min="30" max="30" width="12.0166666666667" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="3"/>
+    <col min="21" max="27" width="9" style="3"/>
+    <col min="28" max="28" width="15.3833333333333" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.0166666666667" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,212 +1419,203 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>33</v>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:30">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+    <row r="4" customHeight="1" spans="1:29">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:30">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -1698,34 +1680,31 @@
       <c r="AA4" s="3">
         <v>0.6</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:29">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:30">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1790,34 +1769,31 @@
       <c r="AA5" s="3">
         <v>0.6</v>
       </c>
-      <c r="AB5" s="3" t="s">
-        <v>69</v>
+      <c r="AB5" s="3">
+        <v>0</v>
       </c>
       <c r="AC5" s="3">
         <v>0</v>
       </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:30">
+    <row r="6" customHeight="1" spans="1:29">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1882,34 +1858,31 @@
       <c r="AA6" s="3">
         <v>0.6</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>69</v>
+      <c r="AB6" s="3">
+        <v>0</v>
       </c>
       <c r="AC6" s="3">
         <v>0</v>
       </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:30">
+    <row r="7" customHeight="1" spans="1:29">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1974,34 +1947,31 @@
       <c r="AA7" s="3">
         <v>0.6</v>
       </c>
-      <c r="AB7" s="3" t="s">
-        <v>69</v>
+      <c r="AB7" s="3">
+        <v>0</v>
       </c>
       <c r="AC7" s="3">
         <v>0</v>
       </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:30">
+    <row r="8" customHeight="1" spans="1:29">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -2066,31 +2036,28 @@
       <c r="AA8" s="3">
         <v>0.6</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>69</v>
+      <c r="AB8" s="3">
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:30">
+    <row r="9" customHeight="1" spans="1:29">
       <c r="A9" s="3">
         <v>1001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2155,31 +2122,28 @@
       <c r="AA9" s="3">
         <v>1</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>86</v>
+      <c r="AB9" s="3">
+        <v>10</v>
       </c>
       <c r="AC9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:30">
+    <row r="10" customHeight="1" spans="1:29">
       <c r="A10" s="3">
         <v>1002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -2244,31 +2208,28 @@
       <c r="AA10" s="3">
         <v>1</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>86</v>
+      <c r="AB10" s="3">
+        <v>20</v>
       </c>
       <c r="AC10" s="3">
-        <v>20</v>
-      </c>
-      <c r="AD10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:30">
+    <row r="11" customHeight="1" spans="1:29">
       <c r="A11" s="3">
         <v>1003</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -2333,13 +2294,10 @@
       <c r="AA11" s="3">
         <v>1</v>
       </c>
-      <c r="AB11" s="3" t="s">
-        <v>86</v>
+      <c r="AB11" s="3">
+        <v>2000</v>
       </c>
       <c r="AC11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="AD11" s="3">
         <v>100</v>
       </c>
     </row>
